--- a/src/test/java/com/gurukula/testData/StaffDetails.xlsx
+++ b/src/test/java/com/gurukula/testData/StaffDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa.ranjan1\eclipse-workspace\Gurukulav0.1\src\test\java\com\gurukula\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22A0F3-2FB2-4AD5-8EE4-FC82BD504A72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1CC42-9B03-4175-9600-79B1E672EBE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C7CE496-BBD7-49C1-9162-99EB5B1C4696}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
   <si>
     <t>StaffName</t>
   </si>
@@ -41,31 +41,7 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Sanish</t>
-  </si>
-  <si>
-    <t>Disha</t>
-  </si>
-  <si>
-    <t>sfdf</t>
-  </si>
-  <si>
-    <t>dfdf</t>
-  </si>
-  <si>
-    <t>dfdff</t>
-  </si>
-  <si>
-    <t>dfdfdf</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>Utrech</t>
+    <t>Utrecht</t>
   </si>
 </sst>
 </file>
@@ -440,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D7AC9-CEA5-4371-B8AF-D85B02B92950}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,335 +442,167 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
